--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9860B-3430-4927-83F7-497A449ACCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B662AFF-6B77-46C4-87B3-EBA78DD7A13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1965" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="305">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1630,6 +1630,24 @@
     <rPh sb="3" eb="4">
       <t>カオ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほのかに光る</t>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほのかな光</t>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleGlow</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2013,11 +2031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2058,7 +2076,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A102" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A103" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4762,24 +4780,51 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="E102">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>300</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" t="s">
+        <v>87</v>
+      </c>
+      <c r="E103">
+        <v>150</v>
+      </c>
+      <c r="F103">
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <v>300</v>
+      </c>
+      <c r="H103">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B662AFF-6B77-46C4-87B3-EBA78DD7A13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C57D6-1ADB-482E-8B85-EBF81F253954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3555" yWindow="1245" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="323">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1648,6 +1648,159 @@
   </si>
   <si>
     <t>LittleGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SapphireSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サファイア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深青色の甘い</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleEmeraldGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleSapphireGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青色の光</t>
+    <rPh sb="0" eb="2">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑の光</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高貴な青光の</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アオヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>淡い緑光の</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittlePinkGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>淡い桃色の光</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モモイロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優しくピンクに光る</t>
+    <rPh sb="0" eb="1">
+      <t>ヤサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleSilverGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈍色の光</t>
+    <rPh sb="0" eb="2">
+      <t>ニビイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>淡雪色に光る</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleGoldGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黄金の光</t>
+    <rPh sb="0" eb="2">
+      <t>コガネ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>煌めく黄金の</t>
+    <rPh sb="0" eb="1">
+      <t>キラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウゴン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2031,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2076,7 +2229,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A103" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A109" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2998,19 +3151,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="D36" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G36">
         <v>500</v>
@@ -3025,13 +3178,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E37">
         <v>15</v>
@@ -3052,22 +3205,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3079,22 +3232,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>777</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3106,22 +3259,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>777</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3133,19 +3286,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <v>150</v>
@@ -3160,22 +3313,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3187,19 +3340,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>60</v>
@@ -3214,19 +3367,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C44" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>60</v>
@@ -3241,22 +3394,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3268,22 +3421,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
         <v>50</v>
-      </c>
-      <c r="G46">
-        <v>300</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3295,22 +3448,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3322,22 +3475,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3349,19 +3502,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G49">
         <v>120</v>
@@ -3376,19 +3529,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
         <v>5</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
       </c>
       <c r="G50">
         <v>120</v>
@@ -3403,19 +3556,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>120</v>
@@ -3430,19 +3583,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>120</v>
@@ -3457,19 +3610,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G53">
         <v>120</v>
@@ -3484,13 +3637,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -3511,13 +3664,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>10</v>
@@ -3538,13 +3691,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E56">
         <v>10</v>
@@ -3565,13 +3718,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>10</v>
@@ -3592,13 +3745,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E58">
         <v>10</v>
@@ -3619,13 +3772,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E59">
         <v>10</v>
@@ -3646,13 +3799,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -3673,13 +3826,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="E61">
         <v>10</v>
@@ -3700,13 +3853,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -3727,13 +3880,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="E63">
         <v>10</v>
@@ -3754,13 +3907,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D64" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -3781,19 +3934,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F65">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G65">
         <v>120</v>
@@ -3808,22 +3961,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3835,19 +3988,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3862,22 +4015,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G68">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3889,22 +4042,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G69">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3916,16 +4069,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="E70">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F70">
         <v>10</v>
@@ -3943,19 +4096,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E71">
         <v>20</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71">
         <v>240</v>
@@ -3970,13 +4123,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -3997,19 +4150,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E73">
         <v>20</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <v>240</v>
@@ -4024,13 +4177,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D74" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="E74">
         <v>20</v>
@@ -4051,13 +4204,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E75">
         <v>20</v>
@@ -4078,19 +4231,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G76">
         <v>240</v>
@@ -4105,19 +4258,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F77">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G77">
         <v>240</v>
@@ -4132,22 +4285,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G78">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4159,22 +4312,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="E79">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G79">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -4186,16 +4339,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -4213,16 +4366,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="E81">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -4240,16 +4393,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -4267,19 +4420,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="E83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G83">
         <v>150</v>
@@ -4294,19 +4447,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F84">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G84">
         <v>150</v>
@@ -4321,19 +4474,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E85">
         <v>5</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G85">
         <v>150</v>
@@ -4348,19 +4501,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E86">
         <v>5</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G86">
         <v>150</v>
@@ -4375,19 +4528,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E87">
         <v>5</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G87">
         <v>150</v>
@@ -4402,22 +4555,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" t="s">
+        <v>216</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
         <v>150</v>
-      </c>
-      <c r="C88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D88" t="s">
-        <v>217</v>
-      </c>
-      <c r="E88">
-        <v>6</v>
-      </c>
-      <c r="F88">
-        <v>20</v>
-      </c>
-      <c r="G88">
-        <v>250</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4429,22 +4582,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E89">
         <v>6</v>
       </c>
       <c r="F89">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4456,16 +4609,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="D90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F90">
         <v>25</v>
@@ -4483,22 +4636,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F91">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G91">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4510,22 +4663,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="C92" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="E92">
-        <v>-40</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="G92">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4537,19 +4690,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="E93">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="F93">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="G93">
         <v>150</v>
@@ -4564,19 +4717,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="F94">
-        <v>30</v>
+        <v>-10</v>
       </c>
       <c r="G94">
         <v>150</v>
@@ -4591,22 +4744,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G95">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4618,22 +4771,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="E96">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G96">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4645,22 +4798,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="D97" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E97">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="F97">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G97">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4672,19 +4825,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="F98">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G98">
         <v>150</v>
@@ -4699,13 +4852,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -4726,22 +4879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4753,22 +4906,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E101">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101">
         <v>30</v>
-      </c>
-      <c r="G101">
-        <v>300</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4780,16 +4933,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="D102" t="s">
-        <v>302</v>
+        <v>84</v>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F102">
         <v>30</v>
@@ -4807,24 +4960,186 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="D103" t="s">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="E103">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="F103">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>300</v>
       </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104">
+        <v>30</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="G104">
+        <v>300</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" t="s">
+        <v>310</v>
+      </c>
+      <c r="D105" t="s">
+        <v>312</v>
+      </c>
+      <c r="E105">
+        <v>30</v>
+      </c>
+      <c r="F105">
+        <v>30</v>
+      </c>
+      <c r="G105">
+        <v>300</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106">
+        <v>30</v>
+      </c>
+      <c r="F106">
+        <v>30</v>
+      </c>
+      <c r="G106">
+        <v>300</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" t="s">
+        <v>318</v>
+      </c>
+      <c r="D107" t="s">
+        <v>319</v>
+      </c>
+      <c r="E107">
+        <v>50</v>
+      </c>
+      <c r="F107">
+        <v>30</v>
+      </c>
+      <c r="G107">
+        <v>300</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" t="s">
+        <v>322</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108">
+        <v>30</v>
+      </c>
+      <c r="G108">
+        <v>300</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109">
+        <v>150</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+      <c r="G109">
+        <v>300</v>
+      </c>
+      <c r="H109">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C57D6-1ADB-482E-8B85-EBF81F253954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E6B02F-9CE9-458F-BC6D-75ED4889EBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3555" yWindow="1245" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2310" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2187,8 +2187,8 @@
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2305,7 +2305,7 @@
         <v>50</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2332,7 +2332,7 @@
         <v>250</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2359,7 +2359,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2386,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2413,7 +2413,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2440,7 +2440,7 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2467,7 +2467,7 @@
         <v>500</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2485,7 +2485,7 @@
         <v>234</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>80</v>
@@ -2494,7 +2494,7 @@
         <v>500</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2521,7 +2521,7 @@
         <v>15</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2539,7 +2539,7 @@
         <v>129</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -2548,7 +2548,7 @@
         <v>1000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2575,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2602,7 +2602,7 @@
         <v>30</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2629,7 +2629,7 @@
         <v>30</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2656,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2683,7 +2683,7 @@
         <v>90</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2710,7 +2710,7 @@
         <v>60</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2737,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2764,7 +2764,7 @@
         <v>50</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2791,7 +2791,7 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2818,7 +2818,7 @@
         <v>200</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2845,7 +2845,7 @@
         <v>250</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2872,7 +2872,7 @@
         <v>20</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -2890,7 +2890,7 @@
         <v>289</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -2899,7 +2899,7 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -2926,7 +2926,7 @@
         <v>150</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2953,7 +2953,7 @@
         <v>150</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2998,7 +2998,7 @@
         <v>120</v>
       </c>
       <c r="E30">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="F30">
         <v>-30</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -3034,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -3115,7 +3115,7 @@
         <v>200</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -3142,7 +3142,7 @@
         <v>500</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -3169,7 +3169,7 @@
         <v>500</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -3196,7 +3196,7 @@
         <v>500</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -3223,7 +3223,7 @@
         <v>500</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -3250,7 +3250,7 @@
         <v>10</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -3268,7 +3268,7 @@
         <v>234</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <v>100</v>
@@ -3277,7 +3277,7 @@
         <v>777</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -3295,7 +3295,7 @@
         <v>239</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>15</v>
@@ -3304,7 +3304,7 @@
         <v>150</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -3331,7 +3331,7 @@
         <v>150</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -3358,7 +3358,7 @@
         <v>60</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -3385,7 +3385,7 @@
         <v>60</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -3412,7 +3412,7 @@
         <v>60</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -3520,7 +3520,7 @@
         <v>120</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -3547,7 +3547,7 @@
         <v>120</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -3601,7 +3601,7 @@
         <v>120</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -3628,7 +3628,7 @@
         <v>120</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
@@ -3655,7 +3655,7 @@
         <v>120</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -3682,7 +3682,7 @@
         <v>120</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -3709,7 +3709,7 @@
         <v>120</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3736,7 +3736,7 @@
         <v>120</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3763,7 +3763,7 @@
         <v>120</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3790,7 +3790,7 @@
         <v>120</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3817,7 +3817,7 @@
         <v>120</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3844,7 +3844,7 @@
         <v>120</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3871,7 +3871,7 @@
         <v>120</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3898,7 +3898,7 @@
         <v>120</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3925,7 +3925,7 @@
         <v>120</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3979,7 +3979,7 @@
         <v>120</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -4051,7 +4051,7 @@
         <v>209</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4060,7 +4060,7 @@
         <v>120</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -4087,7 +4087,7 @@
         <v>240</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -4114,7 +4114,7 @@
         <v>240</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -4141,7 +4141,7 @@
         <v>240</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -4168,7 +4168,7 @@
         <v>240</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -4195,7 +4195,7 @@
         <v>240</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -4222,7 +4222,7 @@
         <v>240</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -4249,7 +4249,7 @@
         <v>240</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -4276,7 +4276,7 @@
         <v>240</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -4303,7 +4303,7 @@
         <v>240</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -4330,7 +4330,7 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -4357,7 +4357,7 @@
         <v>150</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -4384,7 +4384,7 @@
         <v>150</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4411,7 +4411,7 @@
         <v>150</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4438,7 +4438,7 @@
         <v>150</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4465,7 +4465,7 @@
         <v>150</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4492,7 +4492,7 @@
         <v>150</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4519,7 +4519,7 @@
         <v>150</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4546,7 +4546,7 @@
         <v>150</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4573,7 +4573,7 @@
         <v>150</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4600,7 +4600,7 @@
         <v>250</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4627,7 +4627,7 @@
         <v>350</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -4654,7 +4654,7 @@
         <v>350</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -4681,7 +4681,7 @@
         <v>500</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -4699,7 +4699,7 @@
         <v>121</v>
       </c>
       <c r="E93">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="F93">
         <v>-5</v>
@@ -4708,7 +4708,7 @@
         <v>150</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -4735,7 +4735,7 @@
         <v>150</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
@@ -4762,7 +4762,7 @@
         <v>150</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
@@ -4789,7 +4789,7 @@
         <v>100</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -4870,7 +4870,7 @@
         <v>150</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
@@ -4897,7 +4897,7 @@
         <v>150</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4924,7 +4924,7 @@
         <v>30</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
@@ -4969,7 +4969,7 @@
         <v>302</v>
       </c>
       <c r="E103">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -4978,7 +4978,7 @@
         <v>300</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
@@ -4996,7 +4996,7 @@
         <v>313</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F104">
         <v>30</v>
@@ -5005,7 +5005,7 @@
         <v>300</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
@@ -5023,7 +5023,7 @@
         <v>312</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F105">
         <v>30</v>
@@ -5032,7 +5032,7 @@
         <v>300</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -5050,7 +5050,7 @@
         <v>316</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F106">
         <v>30</v>
@@ -5059,7 +5059,7 @@
         <v>300</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
@@ -5077,7 +5077,7 @@
         <v>319</v>
       </c>
       <c r="E107">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F107">
         <v>30</v>
@@ -5086,7 +5086,7 @@
         <v>300</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
@@ -5104,7 +5104,7 @@
         <v>322</v>
       </c>
       <c r="E108">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F108">
         <v>30</v>
@@ -5113,7 +5113,7 @@
         <v>300</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">

--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E6B02F-9CE9-458F-BC6D-75ED4889EBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB01843-9A97-4CE1-AFDD-9E26BDA4E3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4185" yWindow="1230" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="439">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1710,19 +1710,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>淡い緑光の</t>
-    <rPh sb="0" eb="1">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LittlePinkGlow</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1800,6 +1787,810 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>オウゴン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Milky_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃縮ミルク味</t>
+    <rPh sb="0" eb="2">
+      <t>ノウシュク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleSakuraGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>艶やかに光る</t>
+    <rPh sb="0" eb="1">
+      <t>アデ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクの光</t>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleLavenderGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紫の光</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高貴な紫色に光る</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleBrownGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深い茶色に光る</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チャイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こげ茶の光</t>
+    <rPh sb="2" eb="3">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleElderGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薄グリーンの光</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深いエメラルドに光る</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>霞むグリーンに光る</t>
+    <rPh sb="0" eb="1">
+      <t>カス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LittleJasminGlow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乳白色の光</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウハクショク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乳白色に光る</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウハクショク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lavender_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃縮ラベンダー</t>
+    <rPh sb="0" eb="2">
+      <t>ノウシュク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深くラベンダーが香る</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カオル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sakura_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃縮さくら</t>
+    <rPh sb="0" eb="2">
+      <t>ノウシュク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>春色の香り</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Earlgrey_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃縮アールグレイ</t>
+    <rPh sb="0" eb="2">
+      <t>ノウシュク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深いアールグレイ薫る</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カオル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Elder_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃縮エルダー</t>
+    <rPh sb="0" eb="2">
+      <t>ノウシュク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hydrangea_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃い紫陽花の香り</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>アジサイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>五月雨の</t>
+    <rPh sb="0" eb="3">
+      <t>ゴガツアメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jasmin_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃縮ジャスミン</t>
+    <rPh sb="0" eb="2">
+      <t>ノウシュク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フルーティーな</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甘い癒しの</t>
+    <rPh sb="0" eb="1">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BlackLotus_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暗い睡蓮の香り</t>
+    <rPh sb="0" eb="1">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイレン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深い深淵の</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GrapeKihu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貴腐ぶどうの香り</t>
+    <rPh sb="0" eb="2">
+      <t>キフ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熟成されたぶどうの</t>
+    <rPh sb="0" eb="2">
+      <t>ジュクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Muscat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスカット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャルドネの香り</t>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StrawberryHappy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幸せいちご</t>
+    <rPh sb="0" eb="1">
+      <t>シアワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハッピーな香り</t>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StrawberryKing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王様いちご</t>
+    <rPh sb="0" eb="2">
+      <t>オウサマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キングストロベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PeachWhite</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白桃の香り</t>
+    <rPh sb="0" eb="2">
+      <t>ハクトウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さわやかな白桃の</t>
+    <rPh sb="5" eb="7">
+      <t>ハクトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AppleKogyoku</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紅玉の香り</t>
+    <rPh sb="0" eb="2">
+      <t>コウギョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>酸味が効いたりんごの</t>
+    <rPh sb="0" eb="2">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Melon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メロンの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高貴なメロンの</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MelonTwilight</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>芳醇メロン</t>
+    <rPh sb="0" eb="2">
+      <t>ホウジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夕暮れメロンの</t>
+    <rPh sb="0" eb="2">
+      <t>ユウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maron</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マロンが香る</t>
+    <rPh sb="4" eb="5">
+      <t>カオル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>秋栗の香り</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Apricot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あんずの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あんずの甘酸っぱい</t>
+    <rPh sb="4" eb="6">
+      <t>アマズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NutsPistachio</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピスタチオ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピスタチオの香ばしい</t>
+    <rPh sb="6" eb="7">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SilverGlass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀草の香り</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほのかに冷たい</t>
+    <rPh sb="4" eb="5">
+      <t>ツメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EmeralMushroom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カビ臭い</t>
+    <rPh sb="2" eb="3">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>妙にかび臭い</t>
+    <rPh sb="0" eb="1">
+      <t>ミョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BlackLotus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>睡蓮の香り</t>
+    <rPh sb="0" eb="2">
+      <t>スイレン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甘く眠くなる香りの</t>
+    <rPh sb="0" eb="1">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IceCube</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氷</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氷入り</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowOrange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowStrawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤く光るいちごの</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミいちご</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミオレンジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowGrape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミぶどう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光るつぶつぶの</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowMuscat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミマスカット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光るグリーンの</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowCherry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミチェリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紅色に光る</t>
+    <rPh sb="0" eb="2">
+      <t>ベニイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透き通るオレンジの</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowBlueBerry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小さく光るつぶつぶ</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowRaspBerry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミラズベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミブルベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤く光るつぶつぶ</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowCranBerry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミクランベリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈍く光る赤色の</t>
+    <rPh sb="0" eb="1">
+      <t>ニブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アカイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowBlackBerry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミブラック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃く光る黒紫色の</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クロムラサキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowBlackCurrant</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミカシス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒いつぶつぶの</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バニラの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Vanilla_Concent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃いバニラの</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2184,11 +2975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2229,7 +3020,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A109" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A148" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2368,19 +3159,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>362</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>363</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -2395,22 +3186,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -2422,22 +3213,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>365</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
         <v>12</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -2449,25 +3240,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2476,25 +3267,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2503,25 +3294,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2530,25 +3321,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2557,25 +3348,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>15</v>
       </c>
       <c r="H14">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2584,25 +3375,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2611,25 +3402,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2638,16 +3429,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2665,22 +3456,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>368</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2692,22 +3483,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>370</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>372</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2719,22 +3510,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -2746,22 +3537,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E21">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -2773,22 +3564,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -2800,22 +3591,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>373</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>374</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -2827,22 +3618,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -2854,25 +3645,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -2881,25 +3672,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -2908,25 +3699,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G27">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2935,25 +3726,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>376</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>377</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2962,25 +3753,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="E29">
-        <v>-30</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H29">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2989,25 +3780,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="E30">
-        <v>-30</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>-30</v>
+        <v>50</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="H30">
-        <v>-30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -3016,22 +3807,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>379</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>380</v>
       </c>
       <c r="D31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31">
         <v>20</v>
       </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
       <c r="F31">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3043,25 +3834,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>383</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>384</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -3070,25 +3861,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -3097,22 +3888,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>385</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>387</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -3124,25 +3915,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -3151,25 +3942,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="D36" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
         <v>20</v>
       </c>
-      <c r="G36">
-        <v>500</v>
-      </c>
       <c r="H36">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -3178,25 +3969,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D37" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>30</v>
       </c>
       <c r="G37">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -3205,25 +3996,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -3232,25 +4023,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -3259,25 +4050,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="F40">
-        <v>100</v>
+        <v>-10</v>
       </c>
       <c r="G40">
-        <v>777</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -3286,25 +4077,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>-30</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -3313,25 +4104,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -3340,25 +4131,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G43">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -3367,25 +4158,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G44">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -3394,25 +4185,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
         <v>20</v>
       </c>
-      <c r="F45">
-        <v>50</v>
-      </c>
       <c r="G45">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -3421,25 +4212,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -3448,25 +4239,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G47">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -3475,25 +4266,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
@@ -3502,25 +4293,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
         <v>30</v>
       </c>
-      <c r="D49" t="s">
-        <v>224</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
-      </c>
       <c r="G49">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -3529,25 +4320,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
       <c r="G50">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -3556,25 +4347,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G51">
-        <v>120</v>
+        <v>777</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -3583,25 +4374,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G52">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -3610,25 +4401,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
@@ -3637,25 +4428,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -3664,25 +4455,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G55">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -3691,25 +4482,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G56">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3718,25 +4509,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3745,25 +4536,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G58">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3772,25 +4563,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3799,25 +4590,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G60">
         <v>120</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3826,16 +4617,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>283</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F61">
         <v>5</v>
@@ -3844,7 +4635,7 @@
         <v>120</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3853,25 +4644,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>120</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3880,13 +4671,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E63">
         <v>10</v>
@@ -3907,25 +4698,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
-        <v>263</v>
+        <v>168</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>120</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3934,13 +4725,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>62</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -3952,7 +4743,7 @@
         <v>120</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3961,19 +4752,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <v>120</v>
@@ -3988,25 +4779,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -4015,25 +4806,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -4042,25 +4833,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G69">
         <v>120</v>
       </c>
       <c r="H69">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -4069,25 +4860,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -4096,25 +4887,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H71">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -4123,25 +4914,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="E72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F72">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H72">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -4150,25 +4941,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G73">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H73">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -4177,25 +4968,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G74">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H74">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -4204,25 +4995,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G75">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H75">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -4231,25 +5022,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G76">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H76">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -4258,25 +5049,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D77" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G77">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H77">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -4285,25 +5076,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
         <v>50</v>
       </c>
-      <c r="F78">
-        <v>30</v>
-      </c>
-      <c r="G78">
-        <v>240</v>
-      </c>
       <c r="H78">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -4312,25 +5103,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G79">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -4339,25 +5130,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>437</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G80">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H80">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -4366,25 +5157,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G81">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4393,25 +5184,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="E82">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G82">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4420,25 +5211,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F83">
         <v>10</v>
       </c>
       <c r="G83">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4447,25 +5238,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G84">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4474,25 +5265,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F85">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G85">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H85">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4501,25 +5292,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G86">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4528,25 +5319,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G87">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4555,25 +5346,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G88">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4582,25 +5373,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="D89" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>240</v>
+      </c>
+      <c r="H89">
         <v>20</v>
-      </c>
-      <c r="G89">
-        <v>250</v>
-      </c>
-      <c r="H89">
-        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4609,25 +5400,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="C90" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F90">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G90">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -4636,25 +5427,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D91" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F91">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="H91">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -4663,25 +5454,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F92">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G92">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -4690,25 +5481,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="E93">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="F93">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="G93">
         <v>150</v>
       </c>
       <c r="H93">
-        <v>-10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -4717,25 +5508,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="E94">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="F94">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G94">
         <v>150</v>
       </c>
       <c r="H94">
-        <v>-10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
@@ -4744,19 +5535,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="F95">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G95">
         <v>150</v>
@@ -4771,25 +5562,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -4798,25 +5589,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G97">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -4825,25 +5616,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="E98">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G98">
         <v>150</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
@@ -4852,25 +5643,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F99">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G99">
         <v>150</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
@@ -4879,25 +5670,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F100">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G100">
         <v>150</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4906,25 +5697,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="D101" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="E101">
         <v>5</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G101">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
@@ -4933,25 +5724,25 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="E102">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F102">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G102">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
@@ -4960,25 +5751,25 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>303</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G103">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
@@ -4987,25 +5778,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>199</v>
       </c>
       <c r="D104" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G104">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H104">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
@@ -5014,25 +5805,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>310</v>
+        <v>154</v>
       </c>
       <c r="D105" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F105">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G105">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H105">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -5041,25 +5832,25 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="D106" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F106">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G106">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H106">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
@@ -5068,25 +5859,25 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="F107">
-        <v>30</v>
+        <v>-5</v>
       </c>
       <c r="G107">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H107">
-        <v>50</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
@@ -5095,25 +5886,25 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C108" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="D108" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="F108">
-        <v>30</v>
+        <v>-5</v>
       </c>
       <c r="G108">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H108">
-        <v>50</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
@@ -5122,24 +5913,1077 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109">
+        <v>-20</v>
+      </c>
+      <c r="F109">
+        <v>-10</v>
+      </c>
+      <c r="G109">
+        <v>150</v>
+      </c>
+      <c r="H109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>397</v>
+      </c>
+      <c r="C110" t="s">
+        <v>398</v>
+      </c>
+      <c r="D110" t="s">
+        <v>399</v>
+      </c>
+      <c r="E110">
+        <v>-20</v>
+      </c>
+      <c r="F110">
+        <v>-10</v>
+      </c>
+      <c r="G110">
+        <v>150</v>
+      </c>
+      <c r="H110">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111">
+        <v>7</v>
+      </c>
+      <c r="F111">
+        <v>30</v>
+      </c>
+      <c r="G111">
+        <v>150</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>340</v>
+      </c>
+      <c r="C112" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" t="s">
+        <v>342</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>150</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" t="s">
+        <v>345</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>150</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" t="s">
+        <v>347</v>
+      </c>
+      <c r="D114" t="s">
+        <v>348</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
+        <v>150</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" t="s">
+        <v>350</v>
+      </c>
+      <c r="D115" t="s">
+        <v>356</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
+        <v>150</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" t="s">
+        <v>352</v>
+      </c>
+      <c r="D116" t="s">
+        <v>353</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <v>150</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" t="s">
+        <v>355</v>
+      </c>
+      <c r="D117" t="s">
+        <v>357</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>150</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" t="s">
+        <v>359</v>
+      </c>
+      <c r="D118" t="s">
+        <v>360</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>150</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>403</v>
+      </c>
+      <c r="C119" t="s">
+        <v>404</v>
+      </c>
+      <c r="D119" t="s">
+        <v>405</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" t="s">
+        <v>78</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>30</v>
+      </c>
+      <c r="G121">
+        <v>300</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" t="s">
+        <v>219</v>
+      </c>
+      <c r="D122" t="s">
+        <v>220</v>
+      </c>
+      <c r="E122">
+        <v>-10</v>
+      </c>
+      <c r="F122">
+        <v>80</v>
+      </c>
+      <c r="G122">
+        <v>150</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>183</v>
+      </c>
+      <c r="C123" t="s">
+        <v>184</v>
+      </c>
+      <c r="D123" t="s">
+        <v>185</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123">
+        <v>150</v>
+      </c>
+      <c r="H123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>186</v>
+      </c>
+      <c r="C124" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>20</v>
+      </c>
+      <c r="G124">
+        <v>150</v>
+      </c>
+      <c r="H124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" t="s">
+        <v>91</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>30</v>
+      </c>
+      <c r="H125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" t="s">
+        <v>84</v>
+      </c>
+      <c r="D126" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126">
+        <v>15</v>
+      </c>
+      <c r="F126">
+        <v>30</v>
+      </c>
+      <c r="G126">
+        <v>300</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>304</v>
+      </c>
+      <c r="C127" t="s">
+        <v>303</v>
+      </c>
+      <c r="D127" t="s">
+        <v>302</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>300</v>
+      </c>
+      <c r="H127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" t="s">
+        <v>335</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128">
+        <v>300</v>
+      </c>
+      <c r="H128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>309</v>
+      </c>
+      <c r="C129" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" t="s">
+        <v>312</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129">
+        <v>300</v>
+      </c>
+      <c r="H129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" t="s">
+        <v>326</v>
+      </c>
+      <c r="D130" t="s">
+        <v>325</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130">
+        <v>300</v>
+      </c>
+      <c r="H130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>324</v>
+      </c>
+      <c r="C131" t="s">
+        <v>314</v>
+      </c>
+      <c r="D131" t="s">
+        <v>315</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131">
+        <v>300</v>
+      </c>
+      <c r="H131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>327</v>
+      </c>
+      <c r="C132" t="s">
+        <v>328</v>
+      </c>
+      <c r="D132" t="s">
+        <v>329</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132">
+        <v>300</v>
+      </c>
+      <c r="H132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" t="s">
+        <v>331</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133">
+        <v>300</v>
+      </c>
+      <c r="H133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" t="s">
+        <v>334</v>
+      </c>
+      <c r="D134" t="s">
+        <v>336</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134">
+        <v>300</v>
+      </c>
+      <c r="H134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" t="s">
+        <v>338</v>
+      </c>
+      <c r="D135" t="s">
+        <v>339</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135">
+        <v>300</v>
+      </c>
+      <c r="H135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" t="s">
+        <v>317</v>
+      </c>
+      <c r="D136" t="s">
+        <v>318</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136">
+        <v>300</v>
+      </c>
+      <c r="H136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" t="s">
+        <v>320</v>
+      </c>
+      <c r="D137" t="s">
+        <v>321</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>15</v>
+      </c>
+      <c r="G137">
+        <v>300</v>
+      </c>
+      <c r="H137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>407</v>
+      </c>
+      <c r="C138" t="s">
+        <v>409</v>
+      </c>
+      <c r="D138" t="s">
+        <v>408</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138">
+        <v>300</v>
+      </c>
+      <c r="H138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>406</v>
+      </c>
+      <c r="C139" t="s">
+        <v>410</v>
+      </c>
+      <c r="D139" t="s">
+        <v>420</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139">
+        <v>300</v>
+      </c>
+      <c r="H139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" t="s">
+        <v>412</v>
+      </c>
+      <c r="D140" t="s">
+        <v>413</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140">
+        <v>300</v>
+      </c>
+      <c r="H140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" t="s">
+        <v>415</v>
+      </c>
+      <c r="D141" t="s">
+        <v>416</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141">
+        <v>300</v>
+      </c>
+      <c r="H141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>417</v>
+      </c>
+      <c r="C142" t="s">
+        <v>418</v>
+      </c>
+      <c r="D142" t="s">
+        <v>419</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142">
+        <v>300</v>
+      </c>
+      <c r="H142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>421</v>
+      </c>
+      <c r="C143" t="s">
+        <v>425</v>
+      </c>
+      <c r="D143" t="s">
+        <v>422</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+      <c r="F143">
+        <v>10</v>
+      </c>
+      <c r="G143">
+        <v>300</v>
+      </c>
+      <c r="H143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>423</v>
+      </c>
+      <c r="C144" t="s">
+        <v>424</v>
+      </c>
+      <c r="D144" t="s">
+        <v>426</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="G144">
+        <v>300</v>
+      </c>
+      <c r="H144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" t="s">
+        <v>428</v>
+      </c>
+      <c r="D145" t="s">
+        <v>429</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>10</v>
+      </c>
+      <c r="G145">
+        <v>300</v>
+      </c>
+      <c r="H145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" t="s">
+        <v>431</v>
+      </c>
+      <c r="D146" t="s">
+        <v>432</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146">
+        <v>300</v>
+      </c>
+      <c r="H146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>433</v>
+      </c>
+      <c r="C147" t="s">
+        <v>434</v>
+      </c>
+      <c r="D147" t="s">
+        <v>435</v>
+      </c>
+      <c r="E147">
+        <v>-5</v>
+      </c>
+      <c r="F147">
+        <v>-10</v>
+      </c>
+      <c r="G147">
+        <v>300</v>
+      </c>
+      <c r="H147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
         <v>85</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C148" t="s">
         <v>86</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D148" t="s">
         <v>87</v>
       </c>
-      <c r="E109">
+      <c r="E148">
         <v>150</v>
       </c>
-      <c r="F109">
+      <c r="F148">
         <v>100</v>
       </c>
-      <c r="G109">
+      <c r="G148">
         <v>300</v>
       </c>
-      <c r="H109">
+      <c r="H148">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB01843-9A97-4CE1-AFDD-9E26BDA4E3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DF7C6-5655-4A78-A388-F9A96A056262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1230" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2380,13 +2380,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>氷</t>
-    <rPh sb="0" eb="1">
-      <t>コオリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>氷入り</t>
     <rPh sb="0" eb="1">
       <t>コオリ</t>
@@ -2592,6 +2585,10 @@
     <rPh sb="0" eb="1">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カランカラン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2978,8 +2975,8 @@
   <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5130,13 +5127,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>436</v>
+      </c>
+      <c r="C80" t="s">
+        <v>435</v>
+      </c>
+      <c r="D80" t="s">
         <v>437</v>
-      </c>
-      <c r="C80" t="s">
-        <v>436</v>
-      </c>
-      <c r="D80" t="s">
-        <v>438</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -6189,13 +6186,13 @@
         <v>404</v>
       </c>
       <c r="D119" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>-30</v>
       </c>
       <c r="F119">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>100</v>
@@ -6696,13 +6693,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" t="s">
+        <v>408</v>
+      </c>
+      <c r="D138" t="s">
         <v>407</v>
-      </c>
-      <c r="C138" t="s">
-        <v>409</v>
-      </c>
-      <c r="D138" t="s">
-        <v>408</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -6723,13 +6720,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C139" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D139" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E139">
         <v>5</v>
@@ -6750,13 +6747,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
+        <v>410</v>
+      </c>
+      <c r="C140" t="s">
         <v>411</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>412</v>
-      </c>
-      <c r="D140" t="s">
-        <v>413</v>
       </c>
       <c r="E140">
         <v>5</v>
@@ -6777,13 +6774,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
+        <v>413</v>
+      </c>
+      <c r="C141" t="s">
         <v>414</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>415</v>
-      </c>
-      <c r="D141" t="s">
-        <v>416</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -6804,13 +6801,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" t="s">
         <v>417</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>418</v>
-      </c>
-      <c r="D142" t="s">
-        <v>419</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -6831,13 +6828,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
+        <v>420</v>
+      </c>
+      <c r="C143" t="s">
+        <v>424</v>
+      </c>
+      <c r="D143" t="s">
         <v>421</v>
-      </c>
-      <c r="C143" t="s">
-        <v>425</v>
-      </c>
-      <c r="D143" t="s">
-        <v>422</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -6858,13 +6855,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>422</v>
+      </c>
+      <c r="C144" t="s">
         <v>423</v>
       </c>
-      <c r="C144" t="s">
-        <v>424</v>
-      </c>
       <c r="D144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -6885,13 +6882,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
+        <v>426</v>
+      </c>
+      <c r="C145" t="s">
         <v>427</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>428</v>
-      </c>
-      <c r="D145" t="s">
-        <v>429</v>
       </c>
       <c r="E145">
         <v>5</v>
@@ -6912,13 +6909,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
+        <v>429</v>
+      </c>
+      <c r="C146" t="s">
         <v>430</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>431</v>
-      </c>
-      <c r="D146" t="s">
-        <v>432</v>
       </c>
       <c r="E146">
         <v>10</v>
@@ -6939,13 +6936,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" t="s">
         <v>433</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>434</v>
-      </c>
-      <c r="D147" t="s">
-        <v>435</v>
       </c>
       <c r="E147">
         <v>-5</v>

--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DF7C6-5655-4A78-A388-F9A96A056262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044AE6F1-7528-4058-884A-EDD6B1B48881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="445">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -2589,6 +2589,36 @@
   </si>
   <si>
     <t>カランカラン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowApple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミりんご</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光るりんごの</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowRainbowBerry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミレインボー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オーロラに光る</t>
+    <rPh sb="5" eb="6">
+      <t>ヒカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2972,11 +3002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3017,7 +3047,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A148" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A150" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -6693,13 +6723,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="C138" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="D138" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -6720,13 +6750,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C139" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D139" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E139">
         <v>5</v>
@@ -6747,13 +6777,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D140" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E140">
         <v>5</v>
@@ -6774,13 +6804,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C141" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D141" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -6801,13 +6831,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D142" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -6828,13 +6858,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C143" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D143" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -6855,13 +6885,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C144" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D144" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -6882,13 +6912,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C145" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D145" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E145">
         <v>5</v>
@@ -6909,19 +6939,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D146" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E146">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G146">
         <v>300</v>
@@ -6936,19 +6966,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C147" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D147" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E147">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="G147">
         <v>300</v>
@@ -6963,24 +6993,78 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="C148" t="s">
-        <v>86</v>
+        <v>433</v>
       </c>
       <c r="D148" t="s">
-        <v>87</v>
+        <v>434</v>
       </c>
       <c r="E148">
-        <v>150</v>
+        <v>-5</v>
       </c>
       <c r="F148">
-        <v>100</v>
+        <v>-10</v>
       </c>
       <c r="G148">
         <v>300</v>
       </c>
       <c r="H148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" t="s">
+        <v>443</v>
+      </c>
+      <c r="D149" t="s">
+        <v>444</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149">
+        <v>300</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" t="s">
+        <v>87</v>
+      </c>
+      <c r="E150">
+        <v>150</v>
+      </c>
+      <c r="F150">
+        <v>100</v>
+      </c>
+      <c r="G150">
+        <v>300</v>
+      </c>
+      <c r="H150">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044AE6F1-7528-4058-884A-EDD6B1B48881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A5642-3F60-4DD9-A14E-42E174E42B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3210" yWindow="705" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="448">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -2618,6 +2618,24 @@
     <t>オーロラに光る</t>
     <rPh sb="5" eb="6">
       <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GlowBanana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月バナナ</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月光の</t>
+    <rPh sb="0" eb="2">
+      <t>ゲッコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3002,11 +3020,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3047,7 +3065,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A150" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A151" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -6750,13 +6768,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="C139" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="D139" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="E139">
         <v>5</v>
@@ -6777,13 +6795,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C140" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D140" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E140">
         <v>5</v>
@@ -6804,13 +6822,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C141" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D141" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -6831,13 +6849,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C142" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D142" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -6858,13 +6876,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C143" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D143" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -6885,13 +6903,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C144" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D144" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -6912,13 +6930,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D145" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E145">
         <v>5</v>
@@ -6939,13 +6957,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C146" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D146" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E146">
         <v>5</v>
@@ -6966,19 +6984,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C147" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D147" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G147">
         <v>300</v>
@@ -6993,19 +7011,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C148" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D148" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E148">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F148">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="G148">
         <v>300</v>
@@ -7020,19 +7038,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C149" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D149" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F149">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="G149">
         <v>300</v>
@@ -7047,24 +7065,51 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
       <c r="C150" t="s">
-        <v>86</v>
+        <v>443</v>
       </c>
       <c r="D150" t="s">
-        <v>87</v>
+        <v>444</v>
       </c>
       <c r="E150">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="F150">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G150">
         <v>300</v>
       </c>
       <c r="H150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" t="s">
+        <v>87</v>
+      </c>
+      <c r="E151">
+        <v>150</v>
+      </c>
+      <c r="F151">
+        <v>100</v>
+      </c>
+      <c r="G151">
+        <v>300</v>
+      </c>
+      <c r="H151">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A5642-3F60-4DD9-A14E-42E174E42B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EFB7A0-F82B-4552-9281-4FA3445F011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="705" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2055" yWindow="1215" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2380,16 +2380,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>氷入り</t>
-    <rPh sb="0" eb="1">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GlowOrange</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2636,6 +2626,13 @@
     <t>月光の</t>
     <rPh sb="0" eb="2">
       <t>ゲッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氷</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3023,8 +3020,8 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5175,13 +5172,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>435</v>
+      </c>
+      <c r="C80" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" t="s">
         <v>436</v>
-      </c>
-      <c r="C80" t="s">
-        <v>435</v>
-      </c>
-      <c r="D80" t="s">
-        <v>437</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -6231,10 +6228,10 @@
         <v>403</v>
       </c>
       <c r="C119" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="D119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E119">
         <v>-30</v>
@@ -6516,7 +6513,7 @@
         <v>300</v>
       </c>
       <c r="H129">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
@@ -6741,13 +6738,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
+        <v>438</v>
+      </c>
+      <c r="C138" t="s">
         <v>439</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>440</v>
-      </c>
-      <c r="D138" t="s">
-        <v>441</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -6768,13 +6765,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
+        <v>444</v>
+      </c>
+      <c r="C139" t="s">
         <v>445</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>446</v>
-      </c>
-      <c r="D139" t="s">
-        <v>447</v>
       </c>
       <c r="E139">
         <v>5</v>
@@ -6795,13 +6792,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
+        <v>405</v>
+      </c>
+      <c r="C140" t="s">
+        <v>407</v>
+      </c>
+      <c r="D140" t="s">
         <v>406</v>
-      </c>
-      <c r="C140" t="s">
-        <v>408</v>
-      </c>
-      <c r="D140" t="s">
-        <v>407</v>
       </c>
       <c r="E140">
         <v>5</v>
@@ -6822,13 +6819,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C141" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -6849,13 +6846,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
+        <v>409</v>
+      </c>
+      <c r="C142" t="s">
         <v>410</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>411</v>
-      </c>
-      <c r="D142" t="s">
-        <v>412</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -6876,13 +6873,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
+        <v>412</v>
+      </c>
+      <c r="C143" t="s">
         <v>413</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>414</v>
-      </c>
-      <c r="D143" t="s">
-        <v>415</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -6903,13 +6900,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>415</v>
+      </c>
+      <c r="C144" t="s">
         <v>416</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>417</v>
-      </c>
-      <c r="D144" t="s">
-        <v>418</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -6930,13 +6927,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
+        <v>419</v>
+      </c>
+      <c r="C145" t="s">
+        <v>423</v>
+      </c>
+      <c r="D145" t="s">
         <v>420</v>
-      </c>
-      <c r="C145" t="s">
-        <v>424</v>
-      </c>
-      <c r="D145" t="s">
-        <v>421</v>
       </c>
       <c r="E145">
         <v>5</v>
@@ -6957,13 +6954,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
+        <v>421</v>
+      </c>
+      <c r="C146" t="s">
         <v>422</v>
       </c>
-      <c r="C146" t="s">
-        <v>423</v>
-      </c>
       <c r="D146" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E146">
         <v>5</v>
@@ -6984,13 +6981,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
+        <v>425</v>
+      </c>
+      <c r="C147" t="s">
         <v>426</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>427</v>
-      </c>
-      <c r="D147" t="s">
-        <v>428</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -7011,25 +7008,25 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
+        <v>428</v>
+      </c>
+      <c r="C148" t="s">
         <v>429</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>430</v>
       </c>
-      <c r="D148" t="s">
-        <v>431</v>
-      </c>
       <c r="E148">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F148">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G148">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
@@ -7038,13 +7035,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
+        <v>431</v>
+      </c>
+      <c r="C149" t="s">
         <v>432</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>433</v>
-      </c>
-      <c r="D149" t="s">
-        <v>434</v>
       </c>
       <c r="E149">
         <v>-5</v>
@@ -7065,25 +7062,25 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" t="s">
         <v>442</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>443</v>
       </c>
-      <c r="D150" t="s">
-        <v>444</v>
-      </c>
       <c r="E150">
         <v>5</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G150">
         <v>300</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">

--- a/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EFB7A0-F82B-4552-9281-4FA3445F011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9DE485-5C25-4596-8598-7226BD0393F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1215" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="900" yWindow="450" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1976,19 +1976,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>春色の香り</t>
-    <rPh sb="0" eb="1">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Earlgrey_Concent</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2038,13 +2025,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>五月雨の</t>
-    <rPh sb="0" eb="3">
-      <t>ゴガツアメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Jasmin_Concent</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2056,20 +2036,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フルーティーな</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>甘い癒しの</t>
-    <rPh sb="0" eb="1">
-      <t>アマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BlackLotus_Concent</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2251,13 +2217,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マロンが香る</t>
-    <rPh sb="4" eb="5">
-      <t>カオル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>秋栗の香り</t>
     <rPh sb="0" eb="1">
       <t>アキ</t>
@@ -2282,13 +2241,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>あんずの甘酸っぱい</t>
-    <rPh sb="4" eb="6">
-      <t>アマズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NutsPistachio</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2578,10 +2530,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カランカラン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GlowApple</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2634,6 +2582,67 @@
     <rPh sb="0" eb="1">
       <t>コオリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あんずの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>秋が香る</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深く春が香る</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深くあまやかな</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深い癒しの</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深い五月雨色の</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ゴガツアメ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キンキンの</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3020,8 +3029,8 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3111,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -3138,7 +3147,7 @@
         <v>50</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -3156,7 +3165,7 @@
         <v>291</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -3165,7 +3174,7 @@
         <v>250</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -3192,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -3201,13 +3210,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3219,7 +3228,7 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -3246,7 +3255,7 @@
         <v>12</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -3255,13 +3264,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -3273,7 +3282,7 @@
         <v>12</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -3327,7 +3336,7 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -3489,7 +3498,7 @@
         <v>30</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -3498,13 +3507,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -3516,7 +3525,7 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -3525,16 +3534,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -3543,7 +3552,7 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -3588,7 +3597,7 @@
         <v>208</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3597,7 +3606,7 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -3624,7 +3633,7 @@
         <v>90</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -3633,13 +3642,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C23" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -3651,7 +3660,7 @@
         <v>90</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -3669,7 +3678,7 @@
         <v>202</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -3705,7 +3714,7 @@
         <v>50</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -3732,7 +3741,7 @@
         <v>50</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -3768,16 +3777,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C28" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="F28">
         <v>20</v>
@@ -3813,7 +3822,7 @@
         <v>200</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -3840,7 +3849,7 @@
         <v>250</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -3849,13 +3858,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C31" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D31" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -3867,7 +3876,7 @@
         <v>250</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -3876,13 +3885,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -3894,7 +3903,7 @@
         <v>250</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -3903,16 +3912,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C33" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D33" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>50</v>
@@ -3930,16 +3939,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C34" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>50</v>
@@ -3984,16 +3993,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D36" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -4002,7 +4011,7 @@
         <v>20</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -4182,7 +4191,7 @@
         <v>43</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -4191,7 +4200,7 @@
         <v>50</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -4209,7 +4218,7 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -4218,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -5172,13 +5181,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C80" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D80" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -5874,13 +5883,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C106" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D106" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E106">
         <v>6</v>
@@ -5928,13 +5937,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C108" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D108" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E108">
         <v>-30</v>
@@ -5982,13 +5991,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D110" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E110">
         <v>-20</v>
@@ -6069,7 +6078,7 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="E113">
         <v>10</v>
@@ -6090,13 +6099,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" t="s">
         <v>346</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>347</v>
-      </c>
-      <c r="D114" t="s">
-        <v>348</v>
       </c>
       <c r="E114">
         <v>10</v>
@@ -6117,13 +6126,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" t="s">
         <v>349</v>
       </c>
-      <c r="C115" t="s">
-        <v>350</v>
-      </c>
       <c r="D115" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="E115">
         <v>10</v>
@@ -6144,13 +6153,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
+        <v>350</v>
+      </c>
+      <c r="C116" t="s">
         <v>351</v>
       </c>
-      <c r="C116" t="s">
-        <v>352</v>
-      </c>
       <c r="D116" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="E116">
         <v>10</v>
@@ -6171,13 +6180,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C117" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D117" t="s">
-        <v>357</v>
+        <v>445</v>
       </c>
       <c r="E117">
         <v>10</v>
@@ -6198,13 +6207,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C118" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E118">
         <v>10</v>
@@ -6225,13 +6234,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C119" t="s">
+        <v>440</v>
+      </c>
+      <c r="D119" t="s">
         <v>447</v>
-      </c>
-      <c r="D119" t="s">
-        <v>437</v>
       </c>
       <c r="E119">
         <v>-30</v>
@@ -6738,13 +6747,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C138" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D138" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -6765,13 +6774,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C139" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D139" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E139">
         <v>5</v>
@@ -6792,13 +6801,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C140" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D140" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E140">
         <v>5</v>
@@ -6819,13 +6828,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C141" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D141" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -6846,13 +6855,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C142" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D142" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -6873,13 +6882,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C143" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D143" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -6900,13 +6909,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C144" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D144" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -6927,13 +6936,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C145" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D145" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E145">
         <v>5</v>
@@ -6954,13 +6963,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C146" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D146" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E146">
         <v>5</v>
@@ -6981,13 +6990,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C147" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D147" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -7008,13 +7017,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C148" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D148" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E148">
         <v>5</v>
@@ -7035,13 +7044,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C149" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D149" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E149">
         <v>-5</v>
@@ -7062,13 +7071,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C150" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D150" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E150">
         <v>5</v>
